--- a/Code_python/Data/extraction/STOXX50E.xlsx
+++ b/Code_python/Data/extraction/STOXX50E.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3438" uniqueCount="3438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3469" uniqueCount="3469">
   <si>
     <t>date</t>
   </si>
@@ -10328,6 +10328,99 @@
   </si>
   <si>
     <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>2020-11-23</t>
+  </si>
+  <si>
+    <t>2020-11-24</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>2020-11-26</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-12-01</t>
+  </si>
+  <si>
+    <t>2020-12-02</t>
+  </si>
+  <si>
+    <t>2020-12-03</t>
+  </si>
+  <si>
+    <t>2020-12-04</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>2020-12-08</t>
+  </si>
+  <si>
+    <t>2020-12-09</t>
+  </si>
+  <si>
+    <t>2020-12-10</t>
+  </si>
+  <si>
+    <t>2020-12-11</t>
+  </si>
+  <si>
+    <t>2020-12-14</t>
+  </si>
+  <si>
+    <t>2020-12-15</t>
+  </si>
+  <si>
+    <t>2020-12-16</t>
+  </si>
+  <si>
+    <t>2020-12-17</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>2020-12-21</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>2020-12-23</t>
+  </si>
+  <si>
+    <t>2020-12-28</t>
+  </si>
+  <si>
+    <t>2020-12-29</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>2021-01-05</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>2021-01-07</t>
+  </si>
+  <si>
+    <t>2021-01-08</t>
   </si>
 </sst>
 </file>
@@ -10685,7 +10778,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3432"/>
+  <dimension ref="A1:G3463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -89627,6 +89720,719 @@
         <v>37867200</v>
       </c>
     </row>
+    <row r="3433" spans="1:7">
+      <c r="A3433" t="s">
+        <v>3438</v>
+      </c>
+      <c r="B3433">
+        <v>3480.590087890625</v>
+      </c>
+      <c r="C3433">
+        <v>3506.239990234375</v>
+      </c>
+      <c r="D3433">
+        <v>3463.0400390625</v>
+      </c>
+      <c r="E3433">
+        <v>3463.0400390625</v>
+      </c>
+      <c r="F3433">
+        <v>3463.0400390625</v>
+      </c>
+      <c r="G3433">
+        <v>36743100</v>
+      </c>
+    </row>
+    <row r="3434" spans="1:7">
+      <c r="A3434" t="s">
+        <v>3439</v>
+      </c>
+      <c r="B3434">
+        <v>3476.610107421875</v>
+      </c>
+      <c r="C3434">
+        <v>3510.6201171875</v>
+      </c>
+      <c r="D3434">
+        <v>3476.610107421875</v>
+      </c>
+      <c r="E3434">
+        <v>3507.97998046875</v>
+      </c>
+      <c r="F3434">
+        <v>3507.97998046875</v>
+      </c>
+      <c r="G3434">
+        <v>52932600</v>
+      </c>
+    </row>
+    <row r="3435" spans="1:7">
+      <c r="A3435" t="s">
+        <v>3440</v>
+      </c>
+      <c r="B3435">
+        <v>3513.77001953125</v>
+      </c>
+      <c r="C3435">
+        <v>3520.739990234375</v>
+      </c>
+      <c r="D3435">
+        <v>3494.070068359375</v>
+      </c>
+      <c r="E3435">
+        <v>3511.89990234375</v>
+      </c>
+      <c r="F3435">
+        <v>3511.89990234375</v>
+      </c>
+      <c r="G3435">
+        <v>48980900</v>
+      </c>
+    </row>
+    <row r="3436" spans="1:7">
+      <c r="A3436" t="s">
+        <v>3441</v>
+      </c>
+      <c r="B3436">
+        <v>3518.669921875</v>
+      </c>
+      <c r="C3436">
+        <v>3524.080078125</v>
+      </c>
+      <c r="D3436">
+        <v>3508.699951171875</v>
+      </c>
+      <c r="E3436">
+        <v>3510.93994140625</v>
+      </c>
+      <c r="F3436">
+        <v>3510.93994140625</v>
+      </c>
+      <c r="G3436">
+        <v>27287600</v>
+      </c>
+    </row>
+    <row r="3437" spans="1:7">
+      <c r="A3437" t="s">
+        <v>3442</v>
+      </c>
+      <c r="B3437">
+        <v>3509.7900390625</v>
+      </c>
+      <c r="C3437">
+        <v>3536.4599609375</v>
+      </c>
+      <c r="D3437">
+        <v>3507.969970703125</v>
+      </c>
+      <c r="E3437">
+        <v>3527.7900390625</v>
+      </c>
+      <c r="F3437">
+        <v>3527.7900390625</v>
+      </c>
+      <c r="G3437">
+        <v>44686100</v>
+      </c>
+    </row>
+    <row r="3438" spans="1:7">
+      <c r="A3438" t="s">
+        <v>3443</v>
+      </c>
+      <c r="B3438">
+        <v>3518.909912109375</v>
+      </c>
+      <c r="C3438">
+        <v>3538.52001953125</v>
+      </c>
+      <c r="D3438">
+        <v>3492.5400390625</v>
+      </c>
+      <c r="E3438">
+        <v>3492.5400390625</v>
+      </c>
+      <c r="F3438">
+        <v>3492.5400390625</v>
+      </c>
+      <c r="G3438">
+        <v>53483100</v>
+      </c>
+    </row>
+    <row r="3439" spans="1:7">
+      <c r="A3439" t="s">
+        <v>3444</v>
+      </c>
+      <c r="B3439">
+        <v>3499.280029296875</v>
+      </c>
+      <c r="C3439">
+        <v>3532.909912109375</v>
+      </c>
+      <c r="D3439">
+        <v>3499.280029296875</v>
+      </c>
+      <c r="E3439">
+        <v>3525.239990234375</v>
+      </c>
+      <c r="F3439">
+        <v>3525.239990234375</v>
+      </c>
+      <c r="G3439">
+        <v>41995600</v>
+      </c>
+    </row>
+    <row r="3440" spans="1:7">
+      <c r="A3440" t="s">
+        <v>3445</v>
+      </c>
+      <c r="B3440">
+        <v>3515.639892578125</v>
+      </c>
+      <c r="C3440">
+        <v>3523.300048828125</v>
+      </c>
+      <c r="D3440">
+        <v>3502.10009765625</v>
+      </c>
+      <c r="E3440">
+        <v>3521.320068359375</v>
+      </c>
+      <c r="F3440">
+        <v>3521.320068359375</v>
+      </c>
+      <c r="G3440">
+        <v>41426400</v>
+      </c>
+    </row>
+    <row r="3441" spans="1:7">
+      <c r="A3441" t="s">
+        <v>3446</v>
+      </c>
+      <c r="B3441">
+        <v>3520.530029296875</v>
+      </c>
+      <c r="C3441">
+        <v>3523.60009765625</v>
+      </c>
+      <c r="D3441">
+        <v>3502.64990234375</v>
+      </c>
+      <c r="E3441">
+        <v>3517.10009765625</v>
+      </c>
+      <c r="F3441">
+        <v>3517.10009765625</v>
+      </c>
+      <c r="G3441">
+        <v>34857500</v>
+      </c>
+    </row>
+    <row r="3442" spans="1:7">
+      <c r="A3442" t="s">
+        <v>3447</v>
+      </c>
+      <c r="B3442">
+        <v>3516.179931640625</v>
+      </c>
+      <c r="C3442">
+        <v>3540.68994140625</v>
+      </c>
+      <c r="D3442">
+        <v>3516.179931640625</v>
+      </c>
+      <c r="E3442">
+        <v>3539.27001953125</v>
+      </c>
+      <c r="F3442">
+        <v>3539.27001953125</v>
+      </c>
+      <c r="G3442">
+        <v>46292000</v>
+      </c>
+    </row>
+    <row r="3443" spans="1:7">
+      <c r="A3443" t="s">
+        <v>3448</v>
+      </c>
+      <c r="B3443">
+        <v>3536.050048828125</v>
+      </c>
+      <c r="C3443">
+        <v>3536.050048828125</v>
+      </c>
+      <c r="D3443">
+        <v>3499.139892578125</v>
+      </c>
+      <c r="E3443">
+        <v>3530.080078125</v>
+      </c>
+      <c r="F3443">
+        <v>3530.080078125</v>
+      </c>
+      <c r="G3443">
+        <v>32036800</v>
+      </c>
+    </row>
+    <row r="3444" spans="1:7">
+      <c r="A3444" t="s">
+        <v>3449</v>
+      </c>
+      <c r="B3444">
+        <v>3522.989990234375</v>
+      </c>
+      <c r="C3444">
+        <v>3531.68994140625</v>
+      </c>
+      <c r="D3444">
+        <v>3503.280029296875</v>
+      </c>
+      <c r="E3444">
+        <v>3525.8701171875</v>
+      </c>
+      <c r="F3444">
+        <v>3525.8701171875</v>
+      </c>
+      <c r="G3444">
+        <v>25582800</v>
+      </c>
+    </row>
+    <row r="3445" spans="1:7">
+      <c r="A3445" t="s">
+        <v>3450</v>
+      </c>
+      <c r="B3445">
+        <v>3532.0400390625</v>
+      </c>
+      <c r="C3445">
+        <v>3557.389892578125</v>
+      </c>
+      <c r="D3445">
+        <v>3527.419921875</v>
+      </c>
+      <c r="E3445">
+        <v>3529.02001953125</v>
+      </c>
+      <c r="F3445">
+        <v>3529.02001953125</v>
+      </c>
+      <c r="G3445">
+        <v>31808900</v>
+      </c>
+    </row>
+    <row r="3446" spans="1:7">
+      <c r="A3446" t="s">
+        <v>3451</v>
+      </c>
+      <c r="B3446">
+        <v>3529.0400390625</v>
+      </c>
+      <c r="C3446">
+        <v>3541.239990234375</v>
+      </c>
+      <c r="D3446">
+        <v>3498.9599609375</v>
+      </c>
+      <c r="E3446">
+        <v>3522.31005859375</v>
+      </c>
+      <c r="F3446">
+        <v>3522.31005859375</v>
+      </c>
+      <c r="G3446">
+        <v>38432300</v>
+      </c>
+    </row>
+    <row r="3447" spans="1:7">
+      <c r="A3447" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B3447">
+        <v>3515.830078125</v>
+      </c>
+      <c r="C3447">
+        <v>3515.830078125</v>
+      </c>
+      <c r="D3447">
+        <v>3461.469970703125</v>
+      </c>
+      <c r="E3447">
+        <v>3485.840087890625</v>
+      </c>
+      <c r="F3447">
+        <v>3485.840087890625</v>
+      </c>
+      <c r="G3447">
+        <v>35371700</v>
+      </c>
+    </row>
+    <row r="3448" spans="1:7">
+      <c r="A3448" t="s">
+        <v>3453</v>
+      </c>
+      <c r="B3448">
+        <v>3497.840087890625</v>
+      </c>
+      <c r="C3448">
+        <v>3531.949951171875</v>
+      </c>
+      <c r="D3448">
+        <v>3497.840087890625</v>
+      </c>
+      <c r="E3448">
+        <v>3503.9599609375</v>
+      </c>
+      <c r="F3448">
+        <v>3503.9599609375</v>
+      </c>
+      <c r="G3448">
+        <v>32494200</v>
+      </c>
+    </row>
+    <row r="3449" spans="1:7">
+      <c r="A3449" t="s">
+        <v>3454</v>
+      </c>
+      <c r="B3449">
+        <v>3503.3798828125</v>
+      </c>
+      <c r="C3449">
+        <v>3528.830078125</v>
+      </c>
+      <c r="D3449">
+        <v>3497.469970703125</v>
+      </c>
+      <c r="E3449">
+        <v>3521.5</v>
+      </c>
+      <c r="F3449">
+        <v>3521.5</v>
+      </c>
+      <c r="G3449">
+        <v>32146400</v>
+      </c>
+    </row>
+    <row r="3450" spans="1:7">
+      <c r="A3450" t="s">
+        <v>3455</v>
+      </c>
+      <c r="B3450">
+        <v>3524.1201171875</v>
+      </c>
+      <c r="C3450">
+        <v>3560.7099609375</v>
+      </c>
+      <c r="D3450">
+        <v>3523.929931640625</v>
+      </c>
+      <c r="E3450">
+        <v>3543</v>
+      </c>
+      <c r="F3450">
+        <v>3543</v>
+      </c>
+      <c r="G3450">
+        <v>38833500</v>
+      </c>
+    </row>
+    <row r="3451" spans="1:7">
+      <c r="A3451" t="s">
+        <v>3456</v>
+      </c>
+      <c r="B3451">
+        <v>3550.3701171875</v>
+      </c>
+      <c r="C3451">
+        <v>3573.449951171875</v>
+      </c>
+      <c r="D3451">
+        <v>3550.3701171875</v>
+      </c>
+      <c r="E3451">
+        <v>3560.8701171875</v>
+      </c>
+      <c r="F3451">
+        <v>3560.8701171875</v>
+      </c>
+      <c r="G3451">
+        <v>32518600</v>
+      </c>
+    </row>
+    <row r="3452" spans="1:7">
+      <c r="A3452" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B3452">
+        <v>3556.14990234375</v>
+      </c>
+      <c r="C3452">
+        <v>3586.43994140625</v>
+      </c>
+      <c r="D3452">
+        <v>3544.77001953125</v>
+      </c>
+      <c r="E3452">
+        <v>3545.739990234375</v>
+      </c>
+      <c r="F3452">
+        <v>3545.739990234375</v>
+      </c>
+      <c r="G3452">
+        <v>69147500</v>
+      </c>
+    </row>
+    <row r="3453" spans="1:7">
+      <c r="A3453" t="s">
+        <v>3458</v>
+      </c>
+      <c r="B3453">
+        <v>3516.659912109375</v>
+      </c>
+      <c r="C3453">
+        <v>3516.659912109375</v>
+      </c>
+      <c r="D3453">
+        <v>3401.139892578125</v>
+      </c>
+      <c r="E3453">
+        <v>3448.679931640625</v>
+      </c>
+      <c r="F3453">
+        <v>3448.679931640625</v>
+      </c>
+      <c r="G3453">
+        <v>50408100</v>
+      </c>
+    </row>
+    <row r="3454" spans="1:7">
+      <c r="A3454" t="s">
+        <v>3459</v>
+      </c>
+      <c r="B3454">
+        <v>3455.93994140625</v>
+      </c>
+      <c r="C3454">
+        <v>3503.030029296875</v>
+      </c>
+      <c r="D3454">
+        <v>3455.93994140625</v>
+      </c>
+      <c r="E3454">
+        <v>3497.489990234375</v>
+      </c>
+      <c r="F3454">
+        <v>3497.489990234375</v>
+      </c>
+      <c r="G3454">
+        <v>26354300</v>
+      </c>
+    </row>
+    <row r="3455" spans="1:7">
+      <c r="A3455" t="s">
+        <v>3460</v>
+      </c>
+      <c r="B3455">
+        <v>3502.429931640625</v>
+      </c>
+      <c r="C3455">
+        <v>3544.550048828125</v>
+      </c>
+      <c r="D3455">
+        <v>3502.429931640625</v>
+      </c>
+      <c r="E3455">
+        <v>3539.260009765625</v>
+      </c>
+      <c r="F3455">
+        <v>3539.260009765625</v>
+      </c>
+      <c r="G3455">
+        <v>25529100</v>
+      </c>
+    </row>
+    <row r="3456" spans="1:7">
+      <c r="A3456" t="s">
+        <v>3461</v>
+      </c>
+      <c r="B3456">
+        <v>3554.1298828125</v>
+      </c>
+      <c r="C3456">
+        <v>3583.2099609375</v>
+      </c>
+      <c r="D3456">
+        <v>3554.1298828125</v>
+      </c>
+      <c r="E3456">
+        <v>3575.409912109375</v>
+      </c>
+      <c r="F3456">
+        <v>3575.409912109375</v>
+      </c>
+      <c r="G3456">
+        <v>19599700</v>
+      </c>
+    </row>
+    <row r="3457" spans="1:7">
+      <c r="A3457" t="s">
+        <v>3462</v>
+      </c>
+      <c r="B3457">
+        <v>3580.449951171875</v>
+      </c>
+      <c r="C3457">
+        <v>3603.169921875</v>
+      </c>
+      <c r="D3457">
+        <v>3576.760009765625</v>
+      </c>
+      <c r="E3457">
+        <v>3581.3701171875</v>
+      </c>
+      <c r="F3457">
+        <v>3581.3701171875</v>
+      </c>
+      <c r="G3457">
+        <v>18324600</v>
+      </c>
+    </row>
+    <row r="3458" spans="1:7">
+      <c r="A3458" t="s">
+        <v>3463</v>
+      </c>
+      <c r="B3458">
+        <v>3580.909912109375</v>
+      </c>
+      <c r="C3458">
+        <v>3591.25</v>
+      </c>
+      <c r="D3458">
+        <v>3569.6201171875</v>
+      </c>
+      <c r="E3458">
+        <v>3571.590087890625</v>
+      </c>
+      <c r="F3458">
+        <v>3571.590087890625</v>
+      </c>
+      <c r="G3458">
+        <v>16178100</v>
+      </c>
+    </row>
+    <row r="3459" spans="1:7">
+      <c r="A3459" t="s">
+        <v>3464</v>
+      </c>
+      <c r="B3459">
+        <v>3565.679931640625</v>
+      </c>
+      <c r="C3459">
+        <v>3609.909912109375</v>
+      </c>
+      <c r="D3459">
+        <v>3548.31005859375</v>
+      </c>
+      <c r="E3459">
+        <v>3564.389892578125</v>
+      </c>
+      <c r="F3459">
+        <v>3564.389892578125</v>
+      </c>
+      <c r="G3459">
+        <v>31524100</v>
+      </c>
+    </row>
+    <row r="3460" spans="1:7">
+      <c r="A3460" t="s">
+        <v>3465</v>
+      </c>
+      <c r="B3460">
+        <v>3554.239990234375</v>
+      </c>
+      <c r="C3460">
+        <v>3574.97998046875</v>
+      </c>
+      <c r="D3460">
+        <v>3524.6298828125</v>
+      </c>
+      <c r="E3460">
+        <v>3547.85009765625</v>
+      </c>
+      <c r="F3460">
+        <v>3547.85009765625</v>
+      </c>
+      <c r="G3460">
+        <v>31896700</v>
+      </c>
+    </row>
+    <row r="3461" spans="1:7">
+      <c r="A3461" t="s">
+        <v>3466</v>
+      </c>
+      <c r="B3461">
+        <v>3559.81005859375</v>
+      </c>
+      <c r="C3461">
+        <v>3620.570068359375</v>
+      </c>
+      <c r="D3461">
+        <v>3547.449951171875</v>
+      </c>
+      <c r="E3461">
+        <v>3611.080078125</v>
+      </c>
+      <c r="F3461">
+        <v>3611.080078125</v>
+      </c>
+      <c r="G3461">
+        <v>50984300</v>
+      </c>
+    </row>
+    <row r="3462" spans="1:7">
+      <c r="A3462" t="s">
+        <v>3467</v>
+      </c>
+      <c r="B3462">
+        <v>3621.159912109375</v>
+      </c>
+      <c r="C3462">
+        <v>3635.639892578125</v>
+      </c>
+      <c r="D3462">
+        <v>3604.1298828125</v>
+      </c>
+      <c r="E3462">
+        <v>3622.419921875</v>
+      </c>
+      <c r="F3462">
+        <v>3622.419921875</v>
+      </c>
+      <c r="G3462">
+        <v>36856200</v>
+      </c>
+    </row>
+    <row r="3463" spans="1:7">
+      <c r="A3463" t="s">
+        <v>3468</v>
+      </c>
+      <c r="B3463">
+        <v>3632.139892578125</v>
+      </c>
+      <c r="C3463">
+        <v>3657.830078125</v>
+      </c>
+      <c r="D3463">
+        <v>3630.7099609375</v>
+      </c>
+      <c r="E3463">
+        <v>3645.050048828125</v>
+      </c>
+      <c r="F3463">
+        <v>3645.050048828125</v>
+      </c>
+      <c r="G3463">
+        <v>33364700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
